--- a/DatabaseUpdate/ExcelFiles/FinancingSources.xlsx
+++ b/DatabaseUpdate/ExcelFiles/FinancingSources.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -97,13 +97,16 @@
     <t>Платные физ. лица</t>
   </si>
   <si>
-    <t>|pay|</t>
-  </si>
-  <si>
     <t>Гуманитарные пожертвования</t>
   </si>
   <si>
     <t>|donations|</t>
+  </si>
+  <si>
+    <t>|pay|org|dms|</t>
+  </si>
+  <si>
+    <t>|pay|individual|</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,16 +691,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
